--- a/DB Specification/ENCLICK_테이블 명세서_SELLER.xlsx
+++ b/DB Specification/ENCLICK_테이블 명세서_SELLER.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enssel\Documents\스터디\테이블 명세서\초기버전\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nougat\ProjectFile\ENCLICK\EnClick-DOCU\DB Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E97E199-CE7D-495E-9D1A-929F5068F9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49187DA-ECE7-447F-8AB5-AEDC8CFB8B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,14 +366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SELLER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>USER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,10 +398,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023.11.20 / ver1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">ALTER TABLE </t>
   </si>
   <si>
@@ -444,6 +432,18 @@
   </si>
   <si>
     <t>);</t>
+  </si>
+  <si>
+    <t>SELLER_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.23 / ver1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1166,28 +1166,28 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.35546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="4.5" style="2" customWidth="1"/>
-    <col min="7" max="8" width="8.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.25" style="2" customWidth="1"/>
+    <col min="7" max="8" width="8.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.2109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="3.875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.35546875" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="40" t="s">
         <v>73</v>
       </c>
@@ -1202,7 +1202,7 @@
       <c r="J1" s="40"/>
       <c r="K1" s="40"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
@@ -1222,10 +1222,10 @@
         <v>22</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="41"/>
       <c r="B3" s="17" t="s">
         <v>23</v>
@@ -1249,13 +1249,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="41"/>
       <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4" s="44"/>
       <c r="E4" s="44"/>
@@ -1273,13 +1273,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="41"/>
       <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
@@ -1293,13 +1293,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="41"/>
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6" s="42"/>
       <c r="E6" s="42"/>
@@ -1313,7 +1313,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="18"/>
@@ -1321,7 +1321,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>WHERE OBJECT_NAME (f.referenced_object_id) = 'SELLER'</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14"/>
       <c r="B9" s="2" t="str">
         <f>"USE " &amp; C3</f>
@@ -1371,14 +1371,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="14"/>
       <c r="B10" s="2" t="str">
         <f>"IF  EXISTS (SELECT * FROM sys.objects WHERE object_id = OBJECT_ID(N'dbo." &amp; C4 &amp;"') AND type in (N'U'))"</f>
         <v>IF  EXISTS (SELECT * FROM sys.objects WHERE object_id = OBJECT_ID(N'dbo.SELLER') AND type in (N'U'))</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="14"/>
       <c r="B11" s="2" t="str">
         <f xml:space="preserve"> "DROP TABLE dbo." &amp; C4</f>
@@ -1388,13 +1388,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="14"/>
       <c r="N12" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="14"/>
       <c r="B13" s="2" t="str">
         <f>"USE " &amp; C3</f>
@@ -1404,14 +1404,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="14"/>
       <c r="B14" s="2" t="str">
         <f>"CREATE TABLE dbo." &amp; C4 &amp; " ("</f>
         <v>CREATE TABLE dbo.SELLER (</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="13">
         <v>1</v>
       </c>
@@ -1434,7 +1434,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K15" s="10"/>
       <c r="M15" s="38" t="s">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="N15" s="38"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="13">
         <v>2</v>
       </c>
@@ -1463,13 +1463,13 @@
         <v>59</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>81</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K16" s="10"/>
       <c r="M16" s="38"/>
@@ -1477,12 +1477,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="13">
         <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>19</v>
@@ -1498,7 +1498,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K17" s="10"/>
       <c r="M17" s="38"/>
@@ -1506,7 +1506,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="13">
         <v>4</v>
       </c>
@@ -1514,13 +1514,13 @@
         <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>7</v>
@@ -1537,7 +1537,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="13">
         <v>5</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1562,7 +1562,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1579,7 +1579,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1596,7 +1596,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1613,7 +1613,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1628,7 +1628,7 @@
       <c r="M23" s="38"/>
       <c r="N23" s="38"/>
     </row>
-    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1645,7 +1645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1660,7 +1660,7 @@
       <c r="M25" s="38"/>
       <c r="N25" s="38"/>
     </row>
-    <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1677,7 +1677,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1694,7 +1694,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1709,7 +1709,7 @@
       <c r="M28" s="38"/>
       <c r="N28" s="38"/>
     </row>
-    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1726,12 +1726,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J30" s="4"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
     </row>
-    <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="2" t="str">
         <f>"CONSTRAINT PK_" &amp; C4 &amp; " PRIMARY KEY CLUSTERED ("</f>
         <v>CONSTRAINT PK_SELLER PRIMARY KEY CLUSTERED (</v>
@@ -1742,7 +1742,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" s="23" t="s">
         <v>79</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" s="23"/>
       <c r="J33" s="4"/>
       <c r="M33" s="38"/>
@@ -1767,7 +1767,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D34" s="2" t="str">
         <f>IF(C34&lt;&gt;"","ASC","")</f>
         <v/>
@@ -1782,7 +1782,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D35" s="2" t="str">
         <f t="shared" ref="D35" si="1">IF(C35&lt;&gt;"","ASC","")</f>
         <v/>
@@ -1797,7 +1797,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
@@ -1807,73 +1807,73 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="2" t="str">
         <f>"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; $C$5 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "' "</f>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'판매자' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'SELLER' </v>
       </c>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="2" t="str">
         <f>"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; J15 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "', @level2type=N'COLUMN',@level2name=N'" &amp; B15 &amp; "' "</f>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'판매자UUID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'SELLER', @level2type=N'COLUMN',@level2name=N'SELLER_UUID' </v>
       </c>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="2" t="str">
         <f t="shared" ref="B42:B45" si="2">"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; J16 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "', @level2type=N'COLUMN',@level2name=N'" &amp; B16 &amp; "' "</f>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'유저ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'SELLER', @level2type=N'COLUMN',@level2name=N'USER_ID' </v>
       </c>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'판매자 상호명' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'SELLER', @level2type=N'COLUMN',@level2name=N'SELLER_NAME' </v>
+        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'판매자 상호명' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'SELLER', @level2type=N'COLUMN',@level2name=N'SELLER_NM' </v>
       </c>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'등록일' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'SELLER', @level2type=N'COLUMN',@level2name=N'REGI_DT' </v>
       </c>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'수정일' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'SELLER', @level2type=N'COLUMN',@level2name=N'UPDA_DT' </v>
       </c>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="10:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="10:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="10:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="10:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:K1"/>
@@ -1898,15 +1898,15 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="3.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.2109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.35546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.2109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="2"/>
     <col min="10" max="10" width="9" style="2" customWidth="1"/>
@@ -1915,7 +1915,7 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="46" t="s">
         <v>76</v>
       </c>
@@ -1925,7 +1925,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
@@ -1942,10 +1942,10 @@
       </c>
       <c r="F2" s="20" t="str">
         <f>'테스트 테이블 명세서'!$K$2</f>
-        <v>2023.11.20 / ver1.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2023.11.23 / ver1.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="41"/>
       <c r="B3" s="17" t="s">
         <v>23</v>
@@ -1963,7 +1963,7 @@
         <v>김혜민</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="41"/>
       <c r="B4" s="17" t="s">
         <v>2</v>
@@ -1981,7 +1981,7 @@
         <v>ENCLICK</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="41"/>
       <c r="B5" s="17" t="s">
         <v>5</v>
@@ -1994,7 +1994,7 @@
       <c r="E5" s="19"/>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="41"/>
       <c r="B6" s="17" t="s">
         <v>3</v>
@@ -2007,7 +2007,7 @@
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="2" t="s">
         <v>69</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="25">
         <v>1</v>
       </c>
@@ -2043,49 +2043,49 @@
         <v>81</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="25"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="25"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="25"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="25"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="25"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="25"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="17" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="26" t="s">
         <v>60</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="29"/>
       <c r="C18" s="23" t="str">
         <f>B9</f>
@@ -2119,13 +2119,13 @@
       </c>
       <c r="F18" s="30"/>
     </row>
-    <row r="19" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="29" t="s">
         <v>63</v>
       </c>
       <c r="F19" s="30"/>
     </row>
-    <row r="20" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="29" t="s">
         <v>70</v>
       </c>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="F20" s="30"/>
     </row>
-    <row r="21" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="29"/>
       <c r="C21" s="35" t="str">
         <f>D9</f>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="F21" s="30"/>
     </row>
-    <row r="22" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="31" t="s">
         <v>64</v>
       </c>
@@ -2159,7 +2159,7 @@
       <c r="E22" s="32"/>
       <c r="F22" s="33"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="26"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -2169,94 +2169,94 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="29"/>
       <c r="C25" s="23"/>
       <c r="F25" s="30"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="29"/>
       <c r="C26" s="23"/>
       <c r="F26" s="30"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="29"/>
       <c r="F27" s="30"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="29"/>
       <c r="C28" s="25"/>
       <c r="F28" s="30"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="29"/>
       <c r="C29" s="35"/>
       <c r="F29" s="30"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="29"/>
       <c r="C30" s="35"/>
       <c r="F30" s="30"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="31"/>
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
       <c r="F31" s="33"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="2" t="s">
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C35" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="37" t="s">
+      <c r="D35" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F34" s="2" t="s">
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C35" s="23" t="s">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="C37" s="25" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="2" t="s">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C38" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C38" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/DB Specification/ENCLICK_테이블 명세서_SELLER.xlsx
+++ b/DB Specification/ENCLICK_테이블 명세서_SELLER.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nougat\ProjectFile\ENCLICK\EnClick-DOCU\DB Specification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ENSSEL\Desktop\workspace\Enclick\EnClick-DOCU\DB Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49187DA-ECE7-447F-8AB5-AEDC8CFB8B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050E4B9A-568C-433B-B7EB-B4007D7CDF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" tabRatio="893" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 테이블 명세서" sheetId="89" r:id="rId1"/>
@@ -1165,29 +1165,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="104" workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.35546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="4.5" style="2" customWidth="1"/>
-    <col min="7" max="8" width="8.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.2109375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="8.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.25" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="3.85546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.35546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="3.875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.375" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>73</v>
       </c>
@@ -1202,7 +1202,7 @@
       <c r="J1" s="40"/>
       <c r="K1" s="40"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="41"/>
       <c r="B3" s="17" t="s">
         <v>23</v>
@@ -1249,7 +1249,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="41"/>
       <c r="B4" s="17" t="s">
         <v>2</v>
@@ -1273,7 +1273,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41"/>
       <c r="B5" s="17" t="s">
         <v>5</v>
@@ -1293,7 +1293,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41"/>
       <c r="B6" s="17" t="s">
         <v>3</v>
@@ -1313,7 +1313,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="18"/>
@@ -1321,7 +1321,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>WHERE OBJECT_NAME (f.referenced_object_id) = 'SELLER'</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="2" t="str">
         <f>"USE " &amp; C3</f>
@@ -1371,14 +1371,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="2" t="str">
         <f>"IF  EXISTS (SELECT * FROM sys.objects WHERE object_id = OBJECT_ID(N'dbo." &amp; C4 &amp;"') AND type in (N'U'))"</f>
         <v>IF  EXISTS (SELECT * FROM sys.objects WHERE object_id = OBJECT_ID(N'dbo.SELLER') AND type in (N'U'))</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="2" t="str">
         <f xml:space="preserve"> "DROP TABLE dbo." &amp; C4</f>
@@ -1388,13 +1388,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="N12" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="2" t="str">
         <f>"USE " &amp; C3</f>
@@ -1404,14 +1404,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="2" t="str">
         <f>"CREATE TABLE dbo." &amp; C4 &amp; " ("</f>
         <v>CREATE TABLE dbo.SELLER (</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>1</v>
       </c>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="N15" s="38"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>2</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>3</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>4</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>5</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1579,7 +1579,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1596,7 +1596,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1613,7 +1613,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1628,7 +1628,7 @@
       <c r="M23" s="38"/>
       <c r="N23" s="38"/>
     </row>
-    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1645,7 +1645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1660,7 +1660,7 @@
       <c r="M25" s="38"/>
       <c r="N25" s="38"/>
     </row>
-    <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1677,7 +1677,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1694,7 +1694,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1709,7 +1709,7 @@
       <c r="M28" s="38"/>
       <c r="N28" s="38"/>
     </row>
-    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1726,12 +1726,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J30" s="4"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
     </row>
-    <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="str">
         <f>"CONSTRAINT PK_" &amp; C4 &amp; " PRIMARY KEY CLUSTERED ("</f>
         <v>CONSTRAINT PK_SELLER PRIMARY KEY CLUSTERED (</v>
@@ -1742,7 +1742,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="23" t="s">
         <v>79</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="23"/>
       <c r="J33" s="4"/>
       <c r="M33" s="38"/>
@@ -1767,7 +1767,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" s="2" t="str">
         <f>IF(C34&lt;&gt;"","ASC","")</f>
         <v/>
@@ -1782,7 +1782,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="2" t="str">
         <f t="shared" ref="D35" si="1">IF(C35&lt;&gt;"","ASC","")</f>
         <v/>
@@ -1797,7 +1797,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
@@ -1807,73 +1807,73 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="str">
         <f>"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; $C$5 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "' "</f>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'판매자' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'SELLER' </v>
       </c>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="str">
         <f>"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; J15 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "', @level2type=N'COLUMN',@level2name=N'" &amp; B15 &amp; "' "</f>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'판매자UUID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'SELLER', @level2type=N'COLUMN',@level2name=N'SELLER_UUID' </v>
       </c>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="str">
         <f t="shared" ref="B42:B45" si="2">"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; J16 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "', @level2type=N'COLUMN',@level2name=N'" &amp; B16 &amp; "' "</f>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'유저ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'SELLER', @level2type=N'COLUMN',@level2name=N'USER_ID' </v>
       </c>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'판매자 상호명' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'SELLER', @level2type=N'COLUMN',@level2name=N'SELLER_NM' </v>
       </c>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'등록일' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'SELLER', @level2type=N'COLUMN',@level2name=N'REGI_DT' </v>
       </c>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'수정일' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'SELLER', @level2type=N'COLUMN',@level2name=N'UPDA_DT' </v>
       </c>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="10:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="10:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="10:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="50" spans="10:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:K1"/>
@@ -1894,19 +1894,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C36B5F9-DD6C-4513-B25E-14CD7010AD98}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.2109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.35546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.2109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="3.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="2"/>
     <col min="10" max="10" width="9" style="2" customWidth="1"/>
@@ -1915,7 +1915,7 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>76</v>
       </c>
@@ -1925,7 +1925,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>2023.11.23 / ver1.1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="41"/>
       <c r="B3" s="17" t="s">
         <v>23</v>
@@ -1963,7 +1963,7 @@
         <v>김혜민</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="41"/>
       <c r="B4" s="17" t="s">
         <v>2</v>
@@ -1981,7 +1981,7 @@
         <v>ENCLICK</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41"/>
       <c r="B5" s="17" t="s">
         <v>5</v>
@@ -1994,7 +1994,7 @@
       <c r="E5" s="19"/>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41"/>
       <c r="B6" s="17" t="s">
         <v>3</v>
@@ -2007,7 +2007,7 @@
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>69</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="25">
         <v>1</v>
       </c>
@@ -2049,43 +2049,43 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="25"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="25"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="17" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="26" t="s">
         <v>60</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="29"/>
       <c r="C18" s="23" t="str">
         <f>B9</f>
@@ -2119,13 +2119,13 @@
       </c>
       <c r="F18" s="30"/>
     </row>
-    <row r="19" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="29" t="s">
         <v>63</v>
       </c>
       <c r="F19" s="30"/>
     </row>
-    <row r="20" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="29" t="s">
         <v>70</v>
       </c>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="F20" s="30"/>
     </row>
-    <row r="21" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="29"/>
       <c r="C21" s="35" t="str">
         <f>D9</f>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="F21" s="30"/>
     </row>
-    <row r="22" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="31" t="s">
         <v>64</v>
       </c>
@@ -2159,7 +2159,7 @@
       <c r="E22" s="32"/>
       <c r="F22" s="33"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="26"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -2169,43 +2169,43 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="29"/>
       <c r="C25" s="23"/>
       <c r="F25" s="30"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="29"/>
       <c r="C26" s="23"/>
       <c r="F26" s="30"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="29"/>
       <c r="F27" s="30"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="29"/>
       <c r="C28" s="25"/>
       <c r="F28" s="30"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="29"/>
       <c r="C29" s="35"/>
       <c r="F29" s="30"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="29"/>
       <c r="C30" s="35"/>
       <c r="F30" s="30"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="31"/>
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
       <c r="F31" s="33"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>90</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C35" s="23" t="s">
         <v>95</v>
       </c>
@@ -2230,12 +2230,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>98</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C38" s="35" t="s">
         <v>95</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>101</v>
       </c>
